--- a/data/n2v/tables/model-1-1325-20230829-72.xlsx
+++ b/data/n2v/tables/model-1-1325-20230829-72.xlsx
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
